--- a/templates/buycontract/工矿产品订购合同.xlsx
+++ b/templates/buycontract/工矿产品订购合同.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>工矿产品订购合同</t>
   </si>
@@ -31,9 +31,6 @@
     <t>签约地点：</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>跟单员：</t>
   </si>
   <si>
@@ -127,26 +124,8 @@
     <t>需方</t>
   </si>
   <si>
-    <t>{{code}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{subitem_list.buyerCode}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>{{subitem_list.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>amount</t>
+      <t>{{buy_subitem_list/amount</t>
     </r>
     <r>
       <rPr>
@@ -159,11 +138,115 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{nonsense}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{buyer_company_id.row.code}}</t>
+    <t>{{buy_subitem_list/unitPrice}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/sellerCode}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/product_id.row/code}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/unitType_id.row/name}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/product_id.row/name}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buyer_company_id.row/name}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{seller_company_id.row/name}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{follower_id.row/name}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{code}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{region_id.row/name}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_quality}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_deliveryMethod}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_shippingTerm}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_loss}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_acceptanceCondition}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_accessories}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_payment}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_breach}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_dispute}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_memo}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{seller_company_id.row/name}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{seller_company_id.row/phone1}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buyer_company_id.row/phone1}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_packingStandard}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ds_rmb}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{activeAt}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/unitPrice}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/ds_totalPrice}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -171,8 +254,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -395,15 +479,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -427,6 +502,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,17 +526,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,159 +830,163 @@
   <dimension ref="B1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9" style="12"/>
-    <col min="6" max="6" width="6.875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12"/>
-    <col min="8" max="8" width="9.875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="12" customWidth="1"/>
-    <col min="12" max="12" width="6" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="1.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="9" customWidth="1"/>
+    <col min="12" max="12" width="6" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="22.5">
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="H3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L8" s="5"/>
     </row>
@@ -908,16 +994,26 @@
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2"/>
+      <c r="G9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="5"/>
     </row>
@@ -925,451 +1021,511 @@
       <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
+      <c r="G10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="8"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
+      <c r="G11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="8"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="32" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11"/>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="34" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(IF(J13&lt;0,"负","")&amp;TEXT(TRUNC(ABS(ROUND(J13,2))),"[DBNum2]")&amp;"元"&amp;IF(ISERR(FIND(".",ROUND(J13,2))),"",TEXT(RIGHT(TRUNC(ROUND(J13,2)*10)),"[DBNum2]"))&amp;IF(ISERR(FIND(".0",TEXT(J13,"0.00"))),"角","")&amp;IF(LEFT(RIGHT(ROUND(J13,2),3))=".",TEXT(RIGHT(ROUND(J13,2)),"[DBNum2]")&amp;"分",IF(ROUND(J13,2)=0,"","整")),"零元零",""),"零元","")</f>
-        <v/>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="31">
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="28">
         <f>SUM(J9:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" ht="3" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="2:12" hidden="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="19" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="19" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="19" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="19" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="19" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="19" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23"/>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="22" t="s">
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="22" t="s">
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="22" t="s">
+      <c r="C36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23"/>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="D29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E21:I21"/>
@@ -1382,11 +1538,6 @@
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="D28:I28"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="D29:I29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0.74803149606299213" top="0" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/templates/buycontract/工矿产品订购合同.xlsx
+++ b/templates/buycontract/工矿产品订购合同.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>工矿产品订购合同</t>
   </si>
@@ -174,79 +174,87 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>{{tt_quality}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_deliveryMethod}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_shippingTerm}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_loss}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_acceptanceCondition}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_accessories}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_payment}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_breach}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_dispute}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_memo}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{seller_company_id.row/name}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{seller_company_id.row/phone1}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buyer_company_id.row/phone1}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tt_packingStandard}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ds_rmb}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{activeAt}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/unitPrice}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/ds_totalPrice}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>{{region_id.row/name}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{{tt_quality}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_deliveryMethod}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_shippingTerm}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_loss}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_acceptanceCondition}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_accessories}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_payment}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_breach}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_dispute}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_memo}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{seller_company_id.row/name}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{seller_company_id.row/phone1}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{buyer_company_id.row/phone1}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tt_packingStandard}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{ds_rmb}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{activeAt}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{buy_subitem_list/unitPrice}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>{{buy_subitem_list/ds_totalPrice}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{buy_subitem_list/pickuptimeAt}}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -256,9 +264,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -300,6 +308,10 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,6 +514,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -511,28 +545,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -829,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -851,11 +864,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="22.5">
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="10"/>
@@ -905,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -925,8 +938,8 @@
       <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>62</v>
+      <c r="H5" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1008,13 +1021,15 @@
       <c r="H9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="8"/>
+      <c r="I9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12">
@@ -1038,10 +1053,12 @@
       <c r="I10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="8"/>
+      <c r="J10" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12">
@@ -1065,10 +1082,12 @@
       <c r="I11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="8"/>
+      <c r="J11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12">
@@ -1092,10 +1111,12 @@
       <c r="I12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="8"/>
+      <c r="J12" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:12">
@@ -1103,12 +1124,12 @@
         <v>16</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="D13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="28">
@@ -1150,13 +1171,13 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="E16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -1166,16 +1187,16 @@
         <v>18</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="D17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="18"/>
     </row>
     <row r="18" spans="2:12">
@@ -1184,13 +1205,13 @@
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="10"/>
       <c r="K18" s="19"/>
       <c r="L18" s="20"/>
@@ -1204,12 +1225,12 @@
         <v>21</v>
       </c>
       <c r="E19" s="16"/>
-      <c r="F19" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="F19" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="10"/>
       <c r="K19" s="19"/>
       <c r="L19" s="20"/>
@@ -1220,13 +1241,13 @@
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
+      <c r="E20" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="10"/>
       <c r="K20" s="19"/>
       <c r="L20" s="20"/>
@@ -1237,13 +1258,13 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="E21" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="10"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
@@ -1254,13 +1275,13 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="E22" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="10"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
@@ -1270,27 +1291,27 @@
         <v>25</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="D23" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="10"/>
       <c r="K23" s="19"/>
       <c r="L23" s="20"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="10"/>
       <c r="K24" s="19"/>
       <c r="L24" s="20"/>
@@ -1301,11 +1322,11 @@
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="10"/>
       <c r="K25" s="19"/>
       <c r="L25" s="20"/>
@@ -1314,28 +1335,28 @@
       <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="C26" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="10"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="10"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
@@ -1345,14 +1366,14 @@
         <v>28</v>
       </c>
       <c r="C28" s="16"/>
-      <c r="D28" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="D28" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="10"/>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
@@ -1362,27 +1383,27 @@
         <v>29</v>
       </c>
       <c r="C29" s="16"/>
-      <c r="D29" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="D29" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="10"/>
       <c r="K29" s="19"/>
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="10"/>
       <c r="K30" s="19"/>
       <c r="L30" s="20"/>
@@ -1422,7 +1443,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="20"/>
@@ -1477,7 +1498,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="22"/>
@@ -1486,7 +1507,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="10"/>
@@ -1521,11 +1542,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="D29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E21:I21"/>
@@ -1538,6 +1554,11 @@
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="D28:I28"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="D29:I29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0.74803149606299213" top="0" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
